--- a/order_functions/updateOrderRequest.xlsx
+++ b/order_functions/updateOrderRequest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Version</t>
   </si>
@@ -82,7 +82,10 @@
     <t>MediaCategory</t>
   </si>
   <si>
-    <t>ItemType</t>
+    <t>DenominationName</t>
+  </si>
+  <si>
+    <t>DenominationValue</t>
   </si>
   <si>
     <t>Count</t>
@@ -420,13 +423,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,6 +504,9 @@
       </c>
       <c r="Y1" t="s">
         <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
